--- a/database/httpskerstengallerycomplrochurbaniakhtml.xlsx
+++ b/database/httpskerstengallerycomplrochurbaniakhtml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1645,6 +1645,66 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://duckduckgo.com/?q=ul.+%C5%9Bw+Jana+12%2C+31-018+Krak%C3%B3w&amp;amp;t=h_&amp;amp;ia=web&amp;amp;iaxm=maps&amp;amp;strict_bbox=0&amp;amp;bbox=50.121964320731166%2C19.79742535351565%2C50.01773269690072%2C20.0583506464844</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ul. św Jana 12, 31-018 Kraków</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://kerstengallery.com.pl/artysci/</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Artyści</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://kerstengallery.com.pl/kontakt/</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Kontakt</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://kerstengallery.com.pl/o-galerii/</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>O Galerii</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://kerstengallery.com.pl/prace/</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Prace</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpskerstengallerycomplrochurbaniakhtml.xlsx
+++ b/database/httpskerstengallerycomplrochurbaniakhtml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,6 +1705,26 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://kerstengallery.com.pl/</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://kerstengallery.com.pl/tel:+48577300011</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Joanna Włodarczyk 577300011</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
